--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Desktop\WikiUsers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AC5E7D-31AB-469A-AAE9-7063D85186B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC7BF4-4203-4541-B9F6-F5BA1B494B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFA4B73B-D116-4E14-B132-CC831D5A6153}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>MS  AGUSTIN</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>jobTitle</t>
+  </si>
+  <si>
+    <t>QUILMES</t>
+  </si>
+  <si>
+    <t>VARELA</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>ED LIBERTAD</t>
+  </si>
+  <si>
+    <t>FRAGATA LIBERTAD</t>
+  </si>
+  <si>
+    <t>PUERTO BELGRANO</t>
+  </si>
+  <si>
+    <t>AUXILIAR INFO</t>
   </si>
 </sst>
 </file>
@@ -450,19 +480,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFFAD87-7C94-4DD1-8249-DF1D03893956}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +513,17 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,8 +542,17 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -521,8 +571,17 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,8 +600,17 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -561,8 +629,17 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -581,6 +658,18 @@
       <c r="F6" t="s">
         <v>13</v>
       </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
